--- a/data-file/test_model1.xlsx
+++ b/data-file/test_model1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OhoMindZa\Documents\jan-pro\part-ml\dlspot-code\data-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344114E-C05C-439B-87DB-A12446689332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590BD42-4C58-4EFD-B257-FDDE1C11CCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E8DA90DC-5D21-40D7-B063-4502B43D651A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{E8DA90DC-5D21-40D7-B063-4502B43D651A}"/>
   </bookViews>
   <sheets>
     <sheet name="Set1" sheetId="1" r:id="rId1"/>
@@ -58,15 +58,15 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={769C729F-629C-456A-9656-6A50385FD6CA}</author>
+    <author>tc={8A9A1490-C2A6-4BB5-8820-E3F12C2BDCC8}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{769C729F-629C-456A-9656-6A50385FD6CA}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8A9A1490-C2A6-4BB5-8820-E3F12C2BDCC8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    good night</t>
+    Good day</t>
       </text>
     </comment>
   </commentList>
@@ -76,15 +76,15 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={70294CF5-308C-45E7-AEB7-EDCEAADA2408}</author>
+    <author>tc={06AA4211-CEB5-4997-AB28-7DCFF86E341B}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{70294CF5-308C-45E7-AEB7-EDCEAADA2408}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{06AA4211-CEB5-4997-AB28-7DCFF86E341B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    bad day</t>
+    Good day</t>
       </text>
     </comment>
   </commentList>
@@ -94,15 +94,51 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={88A8F8C9-5B72-488E-8D50-0E236D195B2F}</author>
+    <author>tc={6BC9C025-2316-400E-9DC6-FA9894542FC5}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{88A8F8C9-5B72-488E-8D50-0E236D195B2F}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6BC9C025-2316-400E-9DC6-FA9894542FC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    bad Night</t>
+    Good day</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6C2D0989-B9C9-4BBD-9137-23E3A8BE71F3}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6C2D0989-B9C9-4BBD-9137-23E3A8BE71F3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Good day</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5001878F-792D-4F59-A86A-AE5C1CF6A42A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5001878F-792D-4F59-A86A-AE5C1CF6A42A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Good day</t>
       </text>
     </comment>
   </commentList>
@@ -110,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
   <si>
     <t>Round/start</t>
   </si>
@@ -166,27 +202,6 @@
     <t>Xbar_temp_1hr</t>
   </si>
   <si>
-    <t>Xbar_Humidity_1hr</t>
-  </si>
-  <si>
-    <t>Xbar_Vis_1hr</t>
-  </si>
-  <si>
-    <t>Xbar_UVindex_1hr</t>
-  </si>
-  <si>
-    <t>Xbar_Ambient(*C)_1hr</t>
-  </si>
-  <si>
-    <t>Xbar_Object(*C)_1hr</t>
-  </si>
-  <si>
-    <t>Xbar_co2analog_1hr</t>
-  </si>
-  <si>
-    <t>SD_temp_1hr</t>
-  </si>
-  <si>
     <t>SD_Humidity_1hr</t>
   </si>
   <si>
@@ -196,9 +211,6 @@
     <t>SD_UVindex_1hr</t>
   </si>
   <si>
-    <t>SD_Ambient(*C)_1hr</t>
-  </si>
-  <si>
     <t>SD_Object(*C)_1hr</t>
   </si>
   <si>
@@ -208,48 +220,15 @@
     <t>Xbar_temp_3hr</t>
   </si>
   <si>
-    <t>Xbar_Humidity_3hr</t>
-  </si>
-  <si>
-    <t>Xbar_Vis_3hr</t>
-  </si>
-  <si>
-    <t>Xbar_UVindex_3hr</t>
-  </si>
-  <si>
-    <t>Xbar_ambient_3hr</t>
-  </si>
-  <si>
-    <t>Xbar_object_3hr</t>
-  </si>
-  <si>
     <t>Xbar_co2analog_3hr</t>
   </si>
   <si>
-    <t>SD_temp_3hr</t>
-  </si>
-  <si>
-    <t>SD_Humdity_3hr</t>
-  </si>
-  <si>
     <t>SD_Vis_3hr</t>
   </si>
   <si>
     <t>SD_UVindex_3hr</t>
   </si>
   <si>
-    <t>SD_Ambient(*C)_3hr</t>
-  </si>
-  <si>
-    <t>SD_object(*C)_3hr</t>
-  </si>
-  <si>
-    <t>SD_co2analog_3hr</t>
-  </si>
-  <si>
-    <t>Xbar_temp_6hr</t>
-  </si>
-  <si>
     <t>Xbar_Humidity_6hr</t>
   </si>
   <si>
@@ -259,18 +238,9 @@
     <t>Xbar_UVindex_6hr</t>
   </si>
   <si>
-    <t>Xbar_ambient_6hr</t>
-  </si>
-  <si>
-    <t>Xbar_object_6hr</t>
-  </si>
-  <si>
     <t>Xbar_co2analog_6hr</t>
   </si>
   <si>
-    <t>SD_Temperature_6hr</t>
-  </si>
-  <si>
     <t>SD_Humidity_6hr</t>
   </si>
   <si>
@@ -280,9 +250,6 @@
     <t>SD_UVindex_6hr</t>
   </si>
   <si>
-    <t>SD_Ambient(*C)_6hr</t>
-  </si>
-  <si>
     <t>SD_Object(*C)_6hr</t>
   </si>
   <si>
@@ -458,13 +425,52 @@
   </si>
   <si>
     <t>12/4/2020, 1:10</t>
+  </si>
+  <si>
+    <t>XbarHumidity_3hr</t>
+  </si>
+  <si>
+    <t>XbarVis_3hr</t>
+  </si>
+  <si>
+    <t>XbarUVindex_3hr</t>
+  </si>
+  <si>
+    <t>XbarObject(*C)_3hr</t>
+  </si>
+  <si>
+    <t>SD_Humidity_3hr</t>
+  </si>
+  <si>
+    <t>SD_Object(*C)_3hr</t>
+  </si>
+  <si>
+    <t>SD_CO2Analog(ppm)_3hr</t>
+  </si>
+  <si>
+    <t>Xbar_Object(*C)_6hr</t>
+  </si>
+  <si>
+    <t>XbarHumidity_1hr</t>
+  </si>
+  <si>
+    <t>XbarVis_1hr</t>
+  </si>
+  <si>
+    <t>XbarUVindex_1hr</t>
+  </si>
+  <si>
+    <t>XbarObject(*C)_1hr</t>
+  </si>
+  <si>
+    <t>XbarCO2Analog(ppm)_1hr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,13 +485,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -582,7 +600,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -593,20 +610,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,37 +942,60 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2020-04-19T08:32:51.03" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{769C729F-629C-456A-9656-6A50385FD6CA}">
-    <text>good night</text>
+  <threadedComment ref="A1" dT="2020-04-19T08:32:41.86" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{8A9A1490-C2A6-4BB5-8820-E3F12C2BDCC8}">
+    <text>Good day</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2020-04-19T08:32:28.01" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{70294CF5-308C-45E7-AEB7-EDCEAADA2408}">
-    <text>bad day</text>
+  <threadedComment ref="A1" dT="2020-04-19T08:32:41.86" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{06AA4211-CEB5-4997-AB28-7DCFF86E341B}">
+    <text>Good day</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2020-04-19T08:33:00.73" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{88A8F8C9-5B72-488E-8D50-0E236D195B2F}">
-    <text>bad Night</text>
+  <threadedComment ref="A1" dT="2020-04-19T08:32:41.86" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{6BC9C025-2316-400E-9DC6-FA9894542FC5}">
+    <text>Good day</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-04-19T08:32:41.86" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{6C2D0989-B9C9-4BBD-9137-23E3A8BE71F3}">
+    <text>Good day</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-04-19T08:32:41.86" personId="{F7FF3515-EF7E-4655-A62B-1D434C814D4E}" id="{5001878F-792D-4F59-A86A-AE5C1CF6A42A}">
+    <text>Good day</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF763EDC-B2C3-42C4-BFA1-EAE814913EF4}">
-  <dimension ref="A1:BG11"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="28" width="18" customWidth="1"/>
+    <col min="29" max="39" width="25.28515625" customWidth="1"/>
+    <col min="40" max="49" width="26.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,139 +1047,109 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AC1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AD1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AI1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AK1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AL1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AO1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AP1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AQ1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AS1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AT1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AU1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AV1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AW1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3">
         <v>41.84</v>
@@ -1198,12 +1197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>41.35</v>
@@ -1251,12 +1250,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3">
         <v>40.5</v>
@@ -1304,12 +1303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>40.549999999999997</v>
@@ -1357,12 +1356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3">
         <v>41.4</v>
@@ -1410,12 +1409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3">
         <v>41.7</v>
@@ -1463,12 +1462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
         <v>41.19</v>
@@ -1516,12 +1515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3">
         <v>40.5</v>
@@ -1569,12 +1568,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
         <v>41.86</v>
@@ -1622,12 +1621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3">
         <v>42.83</v>
@@ -1684,13 +1683,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E3019B-1BB5-465E-A64D-C9FEC6C87BCC}">
-  <dimension ref="A1:BG28"/>
+  <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,711 +1743,765 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-    </row>
-    <row r="2" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8">
         <v>34.01</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>970.17</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>31.4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>365</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>260</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>254</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>0.02</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>33.75</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>33.19</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>92.75</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>91.74</v>
       </c>
-      <c r="N2" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="8">
         <v>606</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>559</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8">
         <v>32.44</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>970.17</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>33.840000000000003</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>365.01</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>261</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>253</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.03</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>32.53</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>32.47</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>90.55</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>90.45</v>
       </c>
-      <c r="N3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="8">
         <v>584</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>558</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8">
         <v>33.36</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>970.13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>32.65</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>365.32</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>260</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>252</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.02</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>33.049999999999997</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>32.630000000000003</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>91.49</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>90.73</v>
       </c>
-      <c r="N4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="8">
         <v>596</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>564</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="8">
         <v>32.15</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>970.15</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>34.29</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>365.22</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>260</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>254</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.02</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>32.270000000000003</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>32.21</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>90.09</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>89.98</v>
       </c>
-      <c r="N5" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="8">
         <v>584</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>558</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8">
         <v>31.7</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>970.17</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>35.54</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>365.04</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>259</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>254</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.03</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>31.77</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>31.63</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>89.19</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>88.93</v>
       </c>
-      <c r="N6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="8">
         <v>606</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>573</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8">
         <v>31.85</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>970.12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>35.69</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>365.43</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>262</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>254</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.02</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>31.59</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>30.99</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>88.86</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>87.78</v>
       </c>
-      <c r="N7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="8">
         <v>600</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>564</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8">
         <v>32.28</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>970.09</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>34.06</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>365.67</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>260</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>254</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>0.01</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>32.35</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>32.270000000000003</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>90.23</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>90.09</v>
       </c>
-      <c r="N8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="8">
         <v>606</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>569</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8">
         <v>30.43</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>970.11</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>37.79</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>365.48</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>260</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>252</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.02</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>30.53</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>30.31</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>86.95</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>86.56</v>
       </c>
-      <c r="N9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="N9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="8">
         <v>606</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>579</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="8">
         <v>30.83</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>970.01</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>37.29</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>366.41</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>262</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>253</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>0.01</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>30.75</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>30.65</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>87.35</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>87.17</v>
       </c>
-      <c r="N10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="N10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="8">
         <v>584</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>558</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8">
         <v>32.85</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>969.96</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>33.44</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>366.78</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>261</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>253</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>0.02</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>32.53</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>31.95</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>90.55</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>89.51</v>
       </c>
-      <c r="N11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="N11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="8">
         <v>590</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>564</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,15 +2511,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA729C-E4AE-4E9D-8C45-AF92E571CC8D}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:AW26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2516,741 +2571,837 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8">
         <v>42.97</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>970.97</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>15.71</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>358.1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>590</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2981</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>1.77</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>42.35</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>39.549999999999997</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>108.23</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>103.19</v>
       </c>
-      <c r="N2" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="8">
         <v>625</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>578</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8">
         <v>41.29</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>970.85</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>16.8</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>359.14</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>596</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>3050</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1.81</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>41.01</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>38.409999999999997</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>105.82</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>101.14</v>
       </c>
-      <c r="N3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="8">
         <v>600</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>558</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="8">
         <v>41.62</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>970.87</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>16.78</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>358.98</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>600</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3084</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1.83</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>41.03</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>38.97</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>105.85</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>102.15</v>
       </c>
-      <c r="N4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="8">
         <v>593</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>553</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="8">
         <v>41.67</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>970.82</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>16.64</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>359.42</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>606</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>3165</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1.87</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>41.09</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>38.590000000000003</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>105.96</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>101.46</v>
       </c>
-      <c r="N5" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="8">
         <v>634</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>573</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8">
         <v>42.5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>970.69</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>15.89</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>360.54</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>617</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>3267</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>1.9</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>41.87</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>39.19</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>107.37</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>102.54</v>
       </c>
-      <c r="N6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="8">
         <v>600</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>558</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8">
         <v>43.36</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>970.53</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>15.64</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>362.02</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>586</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>3112</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>1.74</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>42.79</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>40.65</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>109.02</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>105.17</v>
       </c>
-      <c r="N7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="8">
         <v>628</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>578</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8">
         <v>43.39</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>970.51</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>15.61</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>362.09</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>588</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>3155</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>1.75</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>42.83</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>40.07</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>109.09</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>104.13</v>
       </c>
-      <c r="N8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="8">
         <v>650</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>598</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="8">
         <v>43.52</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>970.46</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>15.66</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>362.45</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>597</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>3288</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>1.82</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>43.23</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>41.03</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>109.81</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>105.85</v>
       </c>
-      <c r="N9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="N9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="8">
         <v>640</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>603</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8">
         <v>43.26</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>970.41</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>16.079999999999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>362.94</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>579</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>3096</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>1.75</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>42.69</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>40.35</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>108.84</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>104.63</v>
       </c>
-      <c r="N10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="N10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="8">
         <v>634</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>593</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8">
         <v>43.61</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>970.28</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>15.05</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>364.16</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>602</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3204</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>1.79</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>42.91</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>40.65</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>109.24</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>105.17</v>
       </c>
-      <c r="N11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="N11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="8">
         <v>650</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>608</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
+    <row r="12" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A930E8-D5A6-4034-BBA3-36A140E500F0}">
-  <dimension ref="A1:BG11"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3272,107 +3423,161 @@
     <col min="14" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="16" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-    </row>
-    <row r="2" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>33.32</v>
@@ -3420,12 +3625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>34.11</v>
@@ -3473,12 +3678,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2">
         <v>32.840000000000003</v>
@@ -3526,12 +3731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
         <v>32.36</v>
@@ -3579,12 +3784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
         <v>33.4</v>
@@ -3632,12 +3837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2">
         <v>32.89</v>
@@ -3685,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>31.29</v>
@@ -3738,12 +3943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2">
         <v>33.03</v>
@@ -3791,12 +3996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2">
         <v>31.83</v>
@@ -3844,12 +4049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2">
         <v>32.71</v>
@@ -3904,16 +4109,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1199D91-E783-4989-BF04-6D7416459336}">
-  <dimension ref="A1:BG11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1199D91-E783-4989-BF04-6D7416459336}">
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,590 +4170,645 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-    </row>
-    <row r="2" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8">
         <v>30.52</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>974.45</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>53.77</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>328.05</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>414</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1871</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>0.83</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>30.95</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>30.71</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>87.71</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>87.28</v>
       </c>
-      <c r="N2" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="8">
         <v>590</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>564</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8">
         <v>32.18</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>974.45</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>52.16</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>328.15</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>421</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1962</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.88</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>32.049999999999997</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>31.13</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>89.69</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>88.03</v>
       </c>
-      <c r="N3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="8">
         <v>584</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>568</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8">
         <v>33.32</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>974.43</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>46.12</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>328.35</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>426</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2070</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.91</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>33.19</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>32.909999999999997</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>91.74</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>91.24</v>
       </c>
-      <c r="N4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="8">
         <v>584</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>564</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8">
         <v>33.659999999999997</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>974.44</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>45.28</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>328.24</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>420</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1944</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.89</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>33.49</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>32.99</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>92.28</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>91.38</v>
       </c>
-      <c r="N5" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="8">
         <v>612</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>579</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8">
         <v>30.39</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>974.55</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>54.91</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>327.3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>417</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>1851</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.85</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>30.29</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>29.59</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>86.52</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>85.26</v>
       </c>
-      <c r="N6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="8">
         <v>615</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>573</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8">
         <v>33.24</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>974.6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>48.04</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>326.88</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>420</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1880</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.87</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>33.15</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>32.35</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>91.67</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>90.23</v>
       </c>
-      <c r="N7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="8">
         <v>600</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>564</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8">
         <v>33.01</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>974.53</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>47.74</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>327.49</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>435</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>2178</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>0.95</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>32.99</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>32.770000000000003</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>91.38</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>90.99</v>
       </c>
-      <c r="N8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="8">
         <v>615</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>569</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8">
         <v>34.020000000000003</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>974.48</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>43.94</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>327.93</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>420</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>1871</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.87</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>33.85</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>33.21</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>92.93</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>91.78</v>
       </c>
-      <c r="N9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="N9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="8">
         <v>590</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>564</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>19</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8">
         <v>33.26</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>974.49</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>46.36</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>327.82</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>444</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2275</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>1</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>33.11</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>32.590000000000003</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>91.6</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>90.66</v>
       </c>
-      <c r="N10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="N10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="8">
         <v>606</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>568</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
         <v>32.99</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>974.55</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>49.16</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>327.27999999999997</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>450</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>2412</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>1.03</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>32.93</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>32.67</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>91.27</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>90.81</v>
       </c>
-      <c r="N11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="N11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="8">
         <v>596</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>569</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2B71-22E8-4469-AC17-A81E982336A5}">
-  <dimension ref="A1:BG11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7C2B71-22E8-4469-AC17-A81E982336A5}">
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4556,7 +4816,7 @@
     <col min="18" max="59" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4608,664 +4868,635 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AC1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AD1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AI1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AK1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AL1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AO1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AP1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AQ1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AS1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AT1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AU1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AV1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AW1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="C2" s="8">
+        <v>33.35</v>
+      </c>
+      <c r="D2" s="8">
+        <v>969.55</v>
+      </c>
+      <c r="E2" s="8">
+        <v>29.82</v>
+      </c>
+      <c r="F2" s="8">
+        <v>370.39</v>
+      </c>
+      <c r="G2" s="8">
+        <v>256</v>
+      </c>
+      <c r="H2" s="8">
+        <v>253</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="8">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="K2" s="8">
+        <v>31.47</v>
+      </c>
+      <c r="L2" s="8">
+        <v>90.41</v>
+      </c>
+      <c r="M2" s="8">
+        <v>88.65</v>
+      </c>
+      <c r="N2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>503</v>
+      </c>
+      <c r="P2" s="8">
+        <v>454</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="C3" s="8">
+        <v>35.42</v>
+      </c>
+      <c r="D3" s="8">
+        <v>969.52</v>
+      </c>
+      <c r="E3" s="8">
+        <v>27.06</v>
+      </c>
+      <c r="F3" s="8">
+        <v>370.64</v>
+      </c>
+      <c r="G3" s="8">
+        <v>256</v>
+      </c>
+      <c r="H3" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I3" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J3" s="8">
+        <v>34.35</v>
+      </c>
+      <c r="K3" s="8">
+        <v>34.69</v>
+      </c>
+      <c r="L3" s="8">
+        <v>93.76</v>
+      </c>
+      <c r="M3" s="8">
+        <v>94.44</v>
+      </c>
+      <c r="N3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>509</v>
+      </c>
+      <c r="P3" s="8">
+        <v>459</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="C4" s="8">
+        <v>37.15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>969.51</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>370.67</v>
+      </c>
+      <c r="G4" s="8">
+        <v>257</v>
+      </c>
+      <c r="H4" s="8">
+        <v>16908</v>
+      </c>
+      <c r="I4" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J4" s="8">
+        <v>36.17</v>
+      </c>
+      <c r="K4" s="8">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="L4" s="8">
+        <v>97.11</v>
+      </c>
+      <c r="M4" s="8">
+        <v>95.16</v>
+      </c>
+      <c r="N4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>509</v>
+      </c>
+      <c r="P4" s="8">
+        <v>464</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="C5" s="8">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="D5" s="8">
+        <v>969.51</v>
+      </c>
+      <c r="E5" s="8">
+        <v>25.39</v>
+      </c>
+      <c r="F5" s="8">
+        <v>370.69</v>
+      </c>
+      <c r="G5" s="8">
+        <v>255</v>
+      </c>
+      <c r="H5" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I5" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J5" s="8">
+        <v>34.97</v>
+      </c>
+      <c r="K5" s="8">
+        <v>33.35</v>
+      </c>
+      <c r="L5" s="8">
+        <v>94.95</v>
+      </c>
+      <c r="M5" s="8">
+        <v>92.03</v>
+      </c>
+      <c r="N5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>540</v>
+      </c>
+      <c r="P5" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="C6" s="8">
+        <v>37.06</v>
+      </c>
+      <c r="D6" s="8">
+        <v>969.59</v>
+      </c>
+      <c r="E6" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="F6" s="8">
+        <v>370</v>
+      </c>
+      <c r="G6" s="8">
+        <v>257</v>
+      </c>
+      <c r="H6" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I6" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J6" s="8">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="K6" s="8">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="L6" s="8">
+        <v>97.21</v>
+      </c>
+      <c r="M6" s="8">
+        <v>92.79</v>
+      </c>
+      <c r="N6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>540</v>
+      </c>
+      <c r="P6" s="8">
+        <v>499</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="C7" s="8">
+        <v>34.33</v>
+      </c>
+      <c r="D7" s="8">
+        <v>969.69</v>
+      </c>
+      <c r="E7" s="8">
+        <v>27.64</v>
+      </c>
+      <c r="F7" s="8">
+        <v>369.15</v>
+      </c>
+      <c r="G7" s="8">
+        <v>256</v>
+      </c>
+      <c r="H7" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I7" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J7" s="8">
+        <v>33.51</v>
+      </c>
+      <c r="K7" s="8">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="L7" s="8">
+        <v>92.32</v>
+      </c>
+      <c r="M7" s="8">
+        <v>90.59</v>
+      </c>
+      <c r="N7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>534</v>
+      </c>
+      <c r="P7" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="C8" s="8">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="D8" s="8">
+        <v>969.63</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25.35</v>
+      </c>
+      <c r="F8" s="8">
+        <v>369.64</v>
+      </c>
+      <c r="G8" s="8">
+        <v>256</v>
+      </c>
+      <c r="H8" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I8" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J8" s="8">
+        <v>35.17</v>
+      </c>
+      <c r="K8" s="8">
+        <v>34.15</v>
+      </c>
+      <c r="L8" s="8">
+        <v>95.31</v>
+      </c>
+      <c r="M8" s="8">
+        <v>93.47</v>
+      </c>
+      <c r="N8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>515</v>
+      </c>
+      <c r="P8" s="8">
+        <v>469</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="C9" s="8">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="D9" s="8">
+        <v>969.67</v>
+      </c>
+      <c r="E9" s="8">
+        <v>24.8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>369.32</v>
+      </c>
+      <c r="G9" s="8">
+        <v>256</v>
+      </c>
+      <c r="H9" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I9" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J9" s="8">
+        <v>35.49</v>
+      </c>
+      <c r="K9" s="8">
+        <v>33.69</v>
+      </c>
+      <c r="L9" s="8">
+        <v>95.88</v>
+      </c>
+      <c r="M9" s="8">
+        <v>92.64</v>
+      </c>
+      <c r="N9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>518</v>
+      </c>
+      <c r="P9" s="8">
+        <v>469</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="C10" s="8">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="D10" s="8">
+        <v>969.71</v>
+      </c>
+      <c r="E10" s="8">
+        <v>27.29</v>
+      </c>
+      <c r="F10" s="8">
+        <v>368.95</v>
+      </c>
+      <c r="G10" s="8">
+        <v>256</v>
+      </c>
+      <c r="H10" s="8">
+        <v>65535</v>
+      </c>
+      <c r="I10" s="8">
+        <v>655.35</v>
+      </c>
+      <c r="J10" s="8">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="K10" s="8">
+        <v>31.95</v>
+      </c>
+      <c r="L10" s="8">
+        <v>93.11</v>
+      </c>
+      <c r="M10" s="8">
+        <v>89.51</v>
+      </c>
+      <c r="N10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>509</v>
+      </c>
+      <c r="P10" s="8">
+        <v>464</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="9">
-        <v>33.35</v>
-      </c>
-      <c r="D2" s="9">
-        <v>969.55</v>
-      </c>
-      <c r="E2" s="9">
-        <v>29.82</v>
-      </c>
-      <c r="F2" s="9">
-        <v>370.39</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C11" s="8">
+        <v>36.35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>969.69</v>
+      </c>
+      <c r="E11" s="8">
+        <v>24.88</v>
+      </c>
+      <c r="F11" s="8">
+        <v>369.12</v>
+      </c>
+      <c r="G11" s="8">
         <v>256</v>
       </c>
-      <c r="H2" s="9">
-        <v>253</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="J2" s="9">
-        <v>32.450000000000003</v>
-      </c>
-      <c r="K2" s="9">
-        <v>31.47</v>
-      </c>
-      <c r="L2" s="9">
-        <v>90.41</v>
-      </c>
-      <c r="M2" s="9">
-        <v>88.65</v>
-      </c>
-      <c r="N2" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>503</v>
-      </c>
-      <c r="P2" s="9">
-        <v>454</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="9">
-        <v>35.42</v>
-      </c>
-      <c r="D3" s="9">
-        <v>969.52</v>
-      </c>
-      <c r="E3" s="9">
-        <v>27.06</v>
-      </c>
-      <c r="F3" s="9">
-        <v>370.64</v>
-      </c>
-      <c r="G3" s="9">
-        <v>256</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="H11" s="8">
         <v>65535</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I11" s="8">
         <v>655.35</v>
       </c>
-      <c r="J3" s="9">
-        <v>34.35</v>
-      </c>
-      <c r="K3" s="9">
-        <v>34.69</v>
-      </c>
-      <c r="L3" s="9">
-        <v>93.76</v>
-      </c>
-      <c r="M3" s="9">
-        <v>94.44</v>
-      </c>
-      <c r="N3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="9">
-        <v>509</v>
-      </c>
-      <c r="P3" s="9">
-        <v>459</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="9">
-        <v>37.15</v>
-      </c>
-      <c r="D4" s="9">
-        <v>969.51</v>
-      </c>
-      <c r="E4" s="9">
-        <v>24.2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>370.67</v>
-      </c>
-      <c r="G4" s="9">
-        <v>257</v>
-      </c>
-      <c r="H4" s="9">
-        <v>16908</v>
-      </c>
-      <c r="I4" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J4" s="9">
-        <v>36.17</v>
-      </c>
-      <c r="K4" s="9">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="L4" s="9">
-        <v>97.11</v>
-      </c>
-      <c r="M4" s="9">
-        <v>95.16</v>
-      </c>
-      <c r="N4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="9">
-        <v>509</v>
-      </c>
-      <c r="P4" s="9">
-        <v>464</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="9">
-        <v>35.630000000000003</v>
-      </c>
-      <c r="D5" s="9">
-        <v>969.51</v>
-      </c>
-      <c r="E5" s="9">
-        <v>25.39</v>
-      </c>
-      <c r="F5" s="9">
-        <v>370.69</v>
-      </c>
-      <c r="G5" s="9">
-        <v>255</v>
-      </c>
-      <c r="H5" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I5" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J5" s="9">
-        <v>34.97</v>
-      </c>
-      <c r="K5" s="9">
-        <v>33.35</v>
-      </c>
-      <c r="L5" s="9">
-        <v>94.95</v>
-      </c>
-      <c r="M5" s="9">
-        <v>92.03</v>
-      </c>
-      <c r="N5" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="9">
-        <v>540</v>
-      </c>
-      <c r="P5" s="9">
-        <v>494</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="9">
-        <v>37.06</v>
-      </c>
-      <c r="D6" s="9">
-        <v>969.59</v>
-      </c>
-      <c r="E6" s="9">
-        <v>23.7</v>
-      </c>
-      <c r="F6" s="9">
-        <v>370</v>
-      </c>
-      <c r="G6" s="9">
-        <v>257</v>
-      </c>
-      <c r="H6" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I6" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J6" s="9">
-        <v>36.229999999999997</v>
-      </c>
-      <c r="K6" s="9">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="L6" s="9">
-        <v>97.21</v>
-      </c>
-      <c r="M6" s="9">
-        <v>92.79</v>
-      </c>
-      <c r="N6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="9">
-        <v>540</v>
-      </c>
-      <c r="P6" s="9">
-        <v>499</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="9">
-        <v>34.33</v>
-      </c>
-      <c r="D7" s="9">
-        <v>969.69</v>
-      </c>
-      <c r="E7" s="9">
-        <v>27.64</v>
-      </c>
-      <c r="F7" s="9">
-        <v>369.15</v>
-      </c>
-      <c r="G7" s="9">
-        <v>256</v>
-      </c>
-      <c r="H7" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I7" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J7" s="9">
-        <v>33.51</v>
-      </c>
-      <c r="K7" s="9">
-        <v>32.549999999999997</v>
-      </c>
-      <c r="L7" s="9">
-        <v>92.32</v>
-      </c>
-      <c r="M7" s="9">
-        <v>90.59</v>
-      </c>
-      <c r="N7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="9">
-        <v>534</v>
-      </c>
-      <c r="P7" s="9">
-        <v>494</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="9">
-        <v>36.119999999999997</v>
-      </c>
-      <c r="D8" s="9">
-        <v>969.63</v>
-      </c>
-      <c r="E8" s="9">
-        <v>25.35</v>
-      </c>
-      <c r="F8" s="9">
-        <v>369.64</v>
-      </c>
-      <c r="G8" s="9">
-        <v>256</v>
-      </c>
-      <c r="H8" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I8" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J8" s="9">
-        <v>35.17</v>
-      </c>
-      <c r="K8" s="9">
-        <v>34.15</v>
-      </c>
-      <c r="L8" s="9">
-        <v>95.31</v>
-      </c>
-      <c r="M8" s="9">
-        <v>93.47</v>
-      </c>
-      <c r="N8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="9">
-        <v>515</v>
-      </c>
-      <c r="P8" s="9">
-        <v>469</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="9">
-        <v>36.159999999999997</v>
-      </c>
-      <c r="D9" s="9">
-        <v>969.67</v>
-      </c>
-      <c r="E9" s="9">
-        <v>24.8</v>
-      </c>
-      <c r="F9" s="9">
-        <v>369.32</v>
-      </c>
-      <c r="G9" s="9">
-        <v>256</v>
-      </c>
-      <c r="H9" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I9" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="J11" s="8">
         <v>35.49</v>
       </c>
-      <c r="K9" s="9">
-        <v>33.69</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K11" s="8">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="L11" s="8">
         <v>95.88</v>
       </c>
-      <c r="M9" s="9">
-        <v>92.64</v>
-      </c>
-      <c r="N9" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="M11" s="8">
+        <v>93.97</v>
+      </c>
+      <c r="N11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="8">
         <v>518</v>
       </c>
-      <c r="P9" s="9">
-        <v>469</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="9">
-        <v>34.630000000000003</v>
-      </c>
-      <c r="D10" s="9">
-        <v>969.71</v>
-      </c>
-      <c r="E10" s="9">
-        <v>27.29</v>
-      </c>
-      <c r="F10" s="9">
-        <v>368.95</v>
-      </c>
-      <c r="G10" s="9">
-        <v>256</v>
-      </c>
-      <c r="H10" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I10" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J10" s="9">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="K10" s="9">
-        <v>31.95</v>
-      </c>
-      <c r="L10" s="9">
-        <v>93.11</v>
-      </c>
-      <c r="M10" s="9">
-        <v>89.51</v>
-      </c>
-      <c r="N10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>509</v>
-      </c>
-      <c r="P10" s="9">
-        <v>464</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="9">
-        <v>36.35</v>
-      </c>
-      <c r="D11" s="9">
-        <v>969.69</v>
-      </c>
-      <c r="E11" s="9">
-        <v>24.88</v>
-      </c>
-      <c r="F11" s="9">
-        <v>369.12</v>
-      </c>
-      <c r="G11" s="9">
-        <v>256</v>
-      </c>
-      <c r="H11" s="9">
-        <v>65535</v>
-      </c>
-      <c r="I11" s="9">
-        <v>655.35</v>
-      </c>
-      <c r="J11" s="9">
-        <v>35.49</v>
-      </c>
-      <c r="K11" s="9">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="L11" s="9">
-        <v>95.88</v>
-      </c>
-      <c r="M11" s="9">
-        <v>93.97</v>
-      </c>
-      <c r="N11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="9">
-        <v>518</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>484</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>